--- a/inst/extdata/testDatamwshms.xlsx
+++ b/inst/extdata/testDatamwshms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wh1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFE69F00"/>
+      <color rgb="FF009242"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -600,14 +600,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,13 +624,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,6 +703,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF009242"/>
+      <color rgb="FF009A46"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1002,7 +1006,7 @@
   <dimension ref="A1:AMG65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3068,13 +3072,13 @@
       <c r="AMG2" s="14"/>
     </row>
     <row r="3" spans="1:1021" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>2006</v>
       </c>
       <c r="D3" s="24">
@@ -5481,8 +5485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5504,10 +5508,10 @@
       <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="14"/>
@@ -6533,10 +6537,10 @@
       <c r="C2" s="20">
         <v>192</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="58">
         <v>192</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="59">
         <v>192</v>
       </c>
       <c r="F2" s="14"/>
@@ -7562,10 +7566,10 @@
       <c r="C3" s="17">
         <v>188</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="53">
         <v>188</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="52">
         <v>188</v>
       </c>
       <c r="F3" s="14"/>
@@ -8616,10 +8620,10 @@
       <c r="C5" s="17">
         <v>196</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="53">
         <v>196</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="52">
         <v>196</v>
       </c>
     </row>
@@ -8633,10 +8637,10 @@
       <c r="C6" s="18">
         <v>192</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="53">
         <v>192</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="52">
         <v>192</v>
       </c>
     </row>
@@ -8650,10 +8654,10 @@
       <c r="C7" s="18">
         <v>188</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>188</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="52">
         <v>188</v>
       </c>
     </row>
@@ -8667,10 +8671,10 @@
       <c r="C8" s="35">
         <v>192</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="54">
         <v>192</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="55">
         <v>192</v>
       </c>
     </row>
@@ -8834,7 +8838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
